--- a/夜游排班表.xlsx
+++ b/夜游排班表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
   <si>
     <t>领班：</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,71 +102,139 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>船对应的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>领班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>领班A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>领班B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>领班D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>领班对应的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>领班A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全职B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全职E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全职D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>领班C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>领班D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全职A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全职C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>领班E</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>船对应的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>领班</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>领班A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>领班B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>领班D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>领班对应的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>领班A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全职B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全职E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全职D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>领班C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>领班D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全职A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全职C</t>
+    <t>领班F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>领班G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>领班H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>领班I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>领班J</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全职F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全职G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全职H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全职I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全职J</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兼职C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兼职D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兼职E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兼职F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兼职G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兼职H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兼职I</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -838,7 +906,7 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -859,13 +927,23 @@
       <c r="E1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
+      <c r="F1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="K1" s="4" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -913,11 +991,21 @@
       <c r="F4" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="16"/>
+      <c r="G4" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
@@ -994,13 +1082,27 @@
       <c r="C10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
+      <c r="D10" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>53</v>
+      </c>
       <c r="K10" s="10"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -1162,7 +1264,7 @@
       </c>
       <c r="J23">
         <f>COUNTA(B1:K3)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K23" t="s">
         <v>2</v>
@@ -1171,7 +1273,7 @@
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="J24">
         <f>COUNTA(B4:K9)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K24" t="s">
         <v>5</v>
@@ -1180,7 +1282,7 @@
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="J25">
         <f>COUNTA(B10:K18)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K25" t="s">
         <v>6</v>
@@ -1189,7 +1291,7 @@
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="J26">
         <f>COUNTA(B1:K18)</f>
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="K26" t="s">
         <v>7</v>
@@ -1217,19 +1319,19 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" t="s">
-        <v>22</v>
-      </c>
       <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>27</v>
-      </c>
-      <c r="F1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1237,19 +1339,19 @@
         <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2">
         <v>5</v>
       </c>
       <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
         <v>29</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>30</v>
-      </c>
-      <c r="G2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1257,7 +1359,7 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3">
         <v>5</v>
@@ -1266,7 +1368,7 @@
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1274,24 +1376,24 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4">
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
